--- a/data/output/FV2410_FV2404/UTILMD/55078.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55078.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15358" uniqueCount="935">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15379" uniqueCount="935">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2954,6 +2954,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U632" totalsRowShown="0">
+  <autoFilter ref="A1:U632"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3243,7 +3273,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U632"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -35146,5 +35179,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55078.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55078.xlsx
@@ -5259,7 +5259,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -7645,7 +7645,7 @@
         <v>886</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -7807,7 +7807,7 @@
         <v>887</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9315,7 +9315,7 @@
         <v>893</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -9481,7 +9481,7 @@
         <v>894</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -10561,7 +10561,7 @@
         <v>898</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -10755,54 +10755,54 @@
       </c>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5" t="s">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
       <c r="J105" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="K105" s="5" t="s">
+      <c r="K105" s="2" t="s">
         <v>899</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O105" s="5" t="s">
+      <c r="O105" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5" t="s">
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
       <c r="U105" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="V105" s="5" t="s">
+      <c r="V105" s="2" t="s">
         <v>899</v>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
         <v>901</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -13247,7 +13247,7 @@
         <v>903</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -16043,7 +16043,7 @@
         <v>908</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -16899,7 +16899,7 @@
         <v>910</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -17799,7 +17799,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -18937,7 +18937,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -19157,7 +19157,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -19527,7 +19527,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -19631,7 +19631,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -20163,7 +20163,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -20379,7 +20379,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -20537,7 +20537,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -21071,7 +21071,7 @@
         <v>913</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -21613,7 +21613,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -22577,7 +22577,7 @@
       </c>
       <c r="K325" s="2"/>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -22943,7 +22943,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -23107,7 +23107,7 @@
         <v>916</v>
       </c>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -23273,7 +23273,7 @@
         <v>917</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -23439,7 +23439,7 @@
         <v>918</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -23605,7 +23605,7 @@
         <v>919</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -23985,7 +23985,7 @@
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -24201,7 +24201,7 @@
       </c>
       <c r="K355" s="2"/>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="K359" s="2"/>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -24631,7 +24631,7 @@
         <v>920</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -24955,7 +24955,7 @@
         <v>921</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -25223,7 +25223,7 @@
       </c>
       <c r="K374" s="2"/>
       <c r="L374" s="4"/>
-      <c r="M374" s="2" t="s">
+      <c r="M374" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N374" s="2" t="s">
@@ -25327,7 +25327,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -25489,7 +25489,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -25913,7 +25913,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -26341,7 +26341,7 @@
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="4"/>
-      <c r="M395" s="2" t="s">
+      <c r="M395" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N395" s="2" t="s">
@@ -26503,7 +26503,7 @@
       </c>
       <c r="K398" s="2"/>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -26719,7 +26719,7 @@
       </c>
       <c r="K402" s="2"/>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N402" s="2" t="s">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -27247,7 +27247,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -27351,7 +27351,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -27455,7 +27455,7 @@
       </c>
       <c r="K416" s="2"/>
       <c r="L416" s="4"/>
-      <c r="M416" s="2" t="s">
+      <c r="M416" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N416" s="2" t="s">
@@ -27619,7 +27619,7 @@
         <v>922</v>
       </c>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -27779,7 +27779,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -28319,7 +28319,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -28847,7 +28847,7 @@
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="4"/>
-      <c r="M442" s="2" t="s">
+      <c r="M442" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N442" s="2" t="s">
@@ -28951,7 +28951,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -29115,7 +29115,7 @@
         <v>923</v>
       </c>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -29275,7 +29275,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -30085,7 +30085,7 @@
       </c>
       <c r="K465" s="2"/>
       <c r="L465" s="4"/>
-      <c r="M465" s="2" t="s">
+      <c r="M465" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N465" s="2" t="s">
@@ -30245,7 +30245,7 @@
         <v>925</v>
       </c>
       <c r="L468" s="4"/>
-      <c r="M468" s="2" t="s">
+      <c r="M468" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N468" s="2" t="s">
@@ -30459,7 +30459,7 @@
       </c>
       <c r="K472" s="2"/>
       <c r="L472" s="4"/>
-      <c r="M472" s="2" t="s">
+      <c r="M472" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N472" s="2" t="s">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="K475" s="2"/>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -30833,7 +30833,7 @@
       </c>
       <c r="K479" s="2"/>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="K484" s="2"/>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -31201,7 +31201,7 @@
         <v>926</v>
       </c>
       <c r="L486" s="4"/>
-      <c r="M486" s="2" t="s">
+      <c r="M486" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N486" s="2" t="s">
@@ -31419,7 +31419,7 @@
       </c>
       <c r="K490" s="2"/>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -31583,7 +31583,7 @@
         <v>928</v>
       </c>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N493" s="2" t="s">
@@ -31743,7 +31743,7 @@
       </c>
       <c r="K496" s="2"/>
       <c r="L496" s="4"/>
-      <c r="M496" s="2" t="s">
+      <c r="M496" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N496" s="2" t="s">
@@ -31963,7 +31963,7 @@
       </c>
       <c r="K500" s="2"/>
       <c r="L500" s="4"/>
-      <c r="M500" s="2" t="s">
+      <c r="M500" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N500" s="2" t="s">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="K507" s="2"/>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -32649,7 +32649,7 @@
       </c>
       <c r="K513" s="2"/>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -32807,7 +32807,7 @@
       </c>
       <c r="K516" s="2"/>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="K518" s="2"/>
       <c r="L518" s="4"/>
-      <c r="M518" s="2" t="s">
+      <c r="M518" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N518" s="2" t="s">
@@ -33069,7 +33069,7 @@
       </c>
       <c r="K521" s="2"/>
       <c r="L521" s="4"/>
-      <c r="M521" s="2" t="s">
+      <c r="M521" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N521" s="2" t="s">
@@ -33175,7 +33175,7 @@
         <v>930</v>
       </c>
       <c r="L523" s="4"/>
-      <c r="M523" s="2" t="s">
+      <c r="M523" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N523" s="2" t="s">
@@ -33335,7 +33335,7 @@
       </c>
       <c r="K526" s="2"/>
       <c r="L526" s="4"/>
-      <c r="M526" s="2" t="s">
+      <c r="M526" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N526" s="2" t="s">
@@ -33659,7 +33659,7 @@
       </c>
       <c r="K532" s="2"/>
       <c r="L532" s="4"/>
-      <c r="M532" s="2" t="s">
+      <c r="M532" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N532" s="2" t="s">
@@ -33763,7 +33763,7 @@
       </c>
       <c r="K534" s="2"/>
       <c r="L534" s="4"/>
-      <c r="M534" s="2" t="s">
+      <c r="M534" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N534" s="2" t="s">
@@ -33921,7 +33921,7 @@
       </c>
       <c r="K537" s="2"/>
       <c r="L537" s="4"/>
-      <c r="M537" s="2" t="s">
+      <c r="M537" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N537" s="2" t="s">
@@ -34025,7 +34025,7 @@
       </c>
       <c r="K539" s="2"/>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="K542" s="2"/>
       <c r="L542" s="4"/>
-      <c r="M542" s="2" t="s">
+      <c r="M542" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N542" s="2" t="s">
@@ -34557,7 +34557,7 @@
       </c>
       <c r="K549" s="2"/>
       <c r="L549" s="4"/>
-      <c r="M549" s="2" t="s">
+      <c r="M549" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N549" s="2" t="s">
@@ -34661,7 +34661,7 @@
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -34819,7 +34819,7 @@
       </c>
       <c r="K554" s="2"/>
       <c r="L554" s="4"/>
-      <c r="M554" s="2" t="s">
+      <c r="M554" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N554" s="2" t="s">
@@ -34923,7 +34923,7 @@
       </c>
       <c r="K556" s="2"/>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -35081,7 +35081,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -35239,7 +35239,7 @@
       </c>
       <c r="K562" s="2"/>
       <c r="L562" s="4"/>
-      <c r="M562" s="2" t="s">
+      <c r="M562" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N562" s="2" t="s">
@@ -35447,7 +35447,7 @@
       </c>
       <c r="K566" s="2"/>
       <c r="L566" s="4"/>
-      <c r="M566" s="2" t="s">
+      <c r="M566" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N566" s="2" t="s">
@@ -35609,7 +35609,7 @@
       </c>
       <c r="K569" s="2"/>
       <c r="L569" s="4"/>
-      <c r="M569" s="2" t="s">
+      <c r="M569" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N569" s="2" t="s">
@@ -35713,7 +35713,7 @@
       </c>
       <c r="K571" s="2"/>
       <c r="L571" s="4"/>
-      <c r="M571" s="2" t="s">
+      <c r="M571" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N571" s="2" t="s">
@@ -35871,7 +35871,7 @@
       </c>
       <c r="K574" s="2"/>
       <c r="L574" s="4"/>
-      <c r="M574" s="2" t="s">
+      <c r="M574" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N574" s="2" t="s">
@@ -36033,7 +36033,7 @@
       </c>
       <c r="K577" s="2"/>
       <c r="L577" s="4"/>
-      <c r="M577" s="2" t="s">
+      <c r="M577" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N577" s="2" t="s">
@@ -36137,7 +36137,7 @@
       </c>
       <c r="K579" s="2"/>
       <c r="L579" s="4"/>
-      <c r="M579" s="2" t="s">
+      <c r="M579" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N579" s="2" t="s">
@@ -36299,7 +36299,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -36403,7 +36403,7 @@
       </c>
       <c r="K584" s="2"/>
       <c r="L584" s="4"/>
-      <c r="M584" s="2" t="s">
+      <c r="M584" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N584" s="2" t="s">
@@ -36565,7 +36565,7 @@
       </c>
       <c r="K587" s="2"/>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="K592" s="2"/>
       <c r="L592" s="4"/>
-      <c r="M592" s="2" t="s">
+      <c r="M592" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N592" s="2" t="s">
@@ -36931,7 +36931,7 @@
       </c>
       <c r="K594" s="2"/>
       <c r="L594" s="4"/>
-      <c r="M594" s="2" t="s">
+      <c r="M594" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N594" s="2" t="s">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="K597" s="2"/>
       <c r="L597" s="4"/>
-      <c r="M597" s="2" t="s">
+      <c r="M597" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N597" s="2" t="s">
@@ -37297,7 +37297,7 @@
       </c>
       <c r="K601" s="2"/>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -37613,7 +37613,7 @@
       </c>
       <c r="K607" s="2"/>
       <c r="L607" s="4"/>
-      <c r="M607" s="2" t="s">
+      <c r="M607" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N607" s="2" t="s">
@@ -37995,7 +37995,7 @@
       </c>
       <c r="K614" s="2"/>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -38099,7 +38099,7 @@
       </c>
       <c r="K616" s="2"/>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -38261,7 +38261,7 @@
       </c>
       <c r="K619" s="2"/>
       <c r="L619" s="4"/>
-      <c r="M619" s="2" t="s">
+      <c r="M619" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N619" s="2" t="s">
@@ -38465,7 +38465,7 @@
       </c>
       <c r="K623" s="2"/>
       <c r="L623" s="4"/>
-      <c r="M623" s="2" t="s">
+      <c r="M623" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N623" s="2" t="s">
@@ -38841,7 +38841,7 @@
       </c>
       <c r="K630" s="2"/>
       <c r="L630" s="4"/>
-      <c r="M630" s="2" t="s">
+      <c r="M630" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N630" s="2"/>
